--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -94,24 +94,24 @@
     <t>good</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -121,10 +121,10 @@
     <t>hand</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>care</t>
@@ -697,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1187,25 +1187,25 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7043478260869566</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L15">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1213,13 +1213,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7017543859649122</v>
+        <v>0.6928571428571428</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>0.98</v>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1239,25 +1239,25 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6928571428571428</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="L17">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1265,25 +1265,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6904761904761905</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1291,25 +1291,25 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6862745098039216</v>
+        <v>0.6831683168316832</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1317,25 +1317,25 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6831683168316832</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L20">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="M20">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1421,25 +1421,25 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.581039755351682</v>
+        <v>0.5625</v>
       </c>
       <c r="L24">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>137</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1447,25 +1447,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5625</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="10:17">
